--- a/data/trans_camb/P1428-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.3375473342870359</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.450442345338284</v>
+        <v>0.4504423453382839</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.505157382590973</v>
+        <v>-1.394485417821674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.732259898620168</v>
+        <v>-1.740819877179021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.686059288167034</v>
+        <v>-1.770858862510787</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7745571123301114</v>
+        <v>-0.6133141088498816</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7822682410308677</v>
+        <v>-0.787048534060932</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.04676595745143965</v>
+        <v>-0.2051020988439255</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8309144359678345</v>
+        <v>-0.8214964544840769</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9826351091352437</v>
+        <v>-0.8969031249633459</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3873756468205845</v>
+        <v>-0.447746951907729</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2015472640405557</v>
+        <v>0.2307363390224882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1735120346144562</v>
+        <v>-0.1726606231423402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1711104652481142</v>
+        <v>-0.1720984687816439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.074886926485269</v>
+        <v>1.056780240754539</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9844730025091484</v>
+        <v>1.02562421110217</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.730216150225447</v>
+        <v>5.152839248120341</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3672312872873892</v>
+        <v>0.403780194444415</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1545167856249152</v>
+        <v>0.1814114081388199</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.503414503529854</v>
+        <v>2.67243457216725</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.5943676882321033</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7931580204775007</v>
+        <v>0.7931580204775004</v>
       </c>
     </row>
     <row r="8">
@@ -786,13 +786,11 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8833513680421194</v>
-      </c>
-      <c r="J8" s="6" t="n">
         <v>-1</v>
       </c>
+      <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="n">
-        <v>-0.6554671081540339</v>
+        <v>-0.8813986923693325</v>
       </c>
     </row>
     <row r="9">
@@ -809,13 +807,11 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.901757046179987</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>1.563402551610285</v>
-      </c>
+        <v>2.237572733031083</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="n">
-        <v>8.105222583315664</v>
+        <v>9.541246547651959</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +850,7 @@
         <v>-0.4245193528761156</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.1846975218106156</v>
+        <v>-0.1846975218106157</v>
       </c>
     </row>
     <row r="11">
@@ -865,31 +861,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.04180939465137457</v>
+        <v>-0.02065262769677354</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.722218935958133</v>
+        <v>-0.7212665374325321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.30082985237515</v>
+        <v>-1.291723452682505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.13979766516097</v>
+        <v>-2.100671590137562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.096900532289337</v>
+        <v>-2.172981953490564</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.437161413971858</v>
+        <v>-1.410742372559463</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6660160370172563</v>
+        <v>-0.5925824420633369</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.083790360775378</v>
+        <v>-1.062480188741077</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9003846332160985</v>
+        <v>-0.8564482272295297</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +896,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.330679775846376</v>
+        <v>2.192714345537481</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.712900670813742</v>
+        <v>0.6881754113760854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1376615351666806</v>
+        <v>-0.1379933333568649</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1879590315465033</v>
+        <v>0.1910746064233566</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.137838886211267</v>
+        <v>0.1827712523213754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.283460005144418</v>
+        <v>1.382824987228022</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8638670761095528</v>
+        <v>0.9130653159807578</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2002798438227958</v>
+        <v>0.1890827092259861</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5816107757630506</v>
+        <v>0.5902761828946634</v>
       </c>
     </row>
     <row r="13">
@@ -959,7 +955,7 @@
         <v>-0.5231669274132653</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2276165605451265</v>
+        <v>-0.2276165605451267</v>
       </c>
     </row>
     <row r="14">
@@ -970,27 +966,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3739451384131631</v>
+        <v>-0.5033151791814204</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7846436013614111</v>
+        <v>-0.7436192658813358</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6125876533011905</v>
+        <v>-0.5688123521055835</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8935811802135056</v>
+        <v>-0.89267980865771</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8129614887496717</v>
+        <v>-0.7296189580192103</v>
       </c>
     </row>
     <row r="15">
@@ -1000,26 +994,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>16.29191741070559</v>
+      </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>0.7712565491444453</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0.9276266643458542</v>
-      </c>
+        <v>0.805152546638828</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.582101497833782</v>
+        <v>2.378980922448937</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.995769168567094</v>
+        <v>1.951055723155382</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8601319910400803</v>
+        <v>0.6646638372563514</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.332658469742363</v>
+        <v>1.898386853131576</v>
       </c>
     </row>
     <row r="16">
@@ -1040,7 +1034,7 @@
         <v>0.5065311611646716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4948869734338358</v>
+        <v>0.4948869734338359</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.669309164098657</v>
@@ -1069,31 +1063,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4175597070705378</v>
+        <v>-0.5394370750407657</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5437743006149691</v>
+        <v>-0.4026968494963089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4205952057271677</v>
+        <v>-0.4605663556820359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.632726435203473</v>
+        <v>-5.796912296561018</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.190955358552324</v>
+        <v>-6.577643082111511</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.912775664437567</v>
+        <v>-4.933198365888758</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.965222265682776</v>
+        <v>-2.808633680917808</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.40161166929351</v>
+        <v>-3.213471521289252</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.533525162651542</v>
+        <v>-2.563372052297133</v>
       </c>
     </row>
     <row r="18">
@@ -1104,31 +1098,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.483050861994916</v>
+        <v>1.460038450714411</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.592377073338484</v>
+        <v>1.655859581996721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.788370817708961</v>
+        <v>1.675477538219481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.593931252109575</v>
+        <v>-1.834695084747816</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.379540540756479</v>
+        <v>-2.614435062811761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.9919779510575327</v>
+        <v>-0.8448927132509375</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.6224924194310891</v>
+        <v>-0.6034344699909941</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.07913956624463</v>
+        <v>-0.8474983800189477</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.05094902599080877</v>
+        <v>-0.2424236119046815</v>
       </c>
     </row>
     <row r="19">
@@ -1145,7 +1139,7 @@
         <v>0.8246975627761569</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8057393347768207</v>
+        <v>0.805739334776821</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.6521563704978535</v>
@@ -1174,31 +1168,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6391343769174559</v>
+        <v>-0.7464114231809538</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6281348175843317</v>
+        <v>-0.6059285725239479</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6995278128980303</v>
+        <v>-0.6964717707513737</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8083197845683389</v>
+        <v>-0.8197933233091775</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9003117794346401</v>
+        <v>-0.9089337002411866</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6997173919931685</v>
+        <v>-0.6861797889100851</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7436665342992893</v>
+        <v>-0.7298850918357798</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8169532867471881</v>
+        <v>-0.8099595817397768</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6314820331201677</v>
+        <v>-0.6180771414601222</v>
       </c>
     </row>
     <row r="21">
@@ -1209,31 +1203,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.583722806623113</v>
+        <v>6.391625018779027</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>6.138614519660483</v>
+        <v>8.205374495766225</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>7.991949267616024</v>
+        <v>8.330109728053966</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3430348548607606</v>
+        <v>-0.3736368104144848</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5159159173378628</v>
+        <v>-0.5333592257086198</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2089695596079569</v>
+        <v>-0.1016749625448042</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2337044953513577</v>
+        <v>-0.231168995941161</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3754644429110509</v>
+        <v>-0.3206601551574738</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01281335866484027</v>
+        <v>-0.06805197072851119</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1266,7 @@
         <v>-4.485793556907763</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.47648709434315</v>
+        <v>-3.476487094343152</v>
       </c>
     </row>
     <row r="23">
@@ -1283,31 +1277,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.520186943761812</v>
+        <v>-5.205721351709323</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.728896971983689</v>
+        <v>-3.739524983203261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.600407881411381</v>
+        <v>-3.78816016427861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.4529816061293</v>
+        <v>-10.29554323893384</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.70267022217895</v>
+        <v>-11.9420260664219</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.461773773039663</v>
+        <v>-9.63404506329635</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.169757550725439</v>
+        <v>-7.088500398707309</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.574805889119613</v>
+        <v>-6.885019352546514</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.778847097819666</v>
+        <v>-5.898812838988039</v>
       </c>
     </row>
     <row r="24">
@@ -1318,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.8840486108667661</v>
+        <v>-0.6783479663623889</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.252438506297183</v>
+        <v>1.270817643078433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.211832394092039</v>
+        <v>1.224359873442187</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.41100425109464</v>
+        <v>-2.795975070755428</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-4.079187330257871</v>
+        <v>-4.309692100763829</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.688508481551873</v>
+        <v>-2.532771428234021</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.609990024891786</v>
+        <v>-2.574959839207078</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.985740343731018</v>
+        <v>-2.292603045710521</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.205466014654638</v>
+        <v>-1.524031962848551</v>
       </c>
     </row>
     <row r="25">
@@ -1377,7 +1371,7 @@
         <v>-0.4623284471595482</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3583042463964481</v>
+        <v>-0.3583042463964483</v>
       </c>
     </row>
     <row r="26">
@@ -1388,31 +1382,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8285922024507119</v>
+        <v>-0.8266821482309835</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5726962751916769</v>
+        <v>-0.5855780603093055</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5634302913299502</v>
+        <v>-0.5644968648441984</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6277525757036345</v>
+        <v>-0.61708075312855</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6950888812585673</v>
+        <v>-0.6979898154072942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5532567557896083</v>
+        <v>-0.5603113929980619</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6415746029462341</v>
+        <v>-0.6400070009800397</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5996397177732629</v>
+        <v>-0.6202498100264668</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5172375400098145</v>
+        <v>-0.5226055614334789</v>
       </c>
     </row>
     <row r="27">
@@ -1423,31 +1417,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1559889186782497</v>
+        <v>-0.1512454062348761</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3826225980458284</v>
+        <v>0.3618800119864061</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3948877254507826</v>
+        <v>0.3807705473313683</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2005772095253648</v>
+        <v>-0.2117212680780535</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3378165572209327</v>
+        <v>-0.32012989378726</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.219746192767159</v>
+        <v>-0.1983563306179458</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3154631339303163</v>
+        <v>-0.3009983279242435</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2346045220334281</v>
+        <v>-0.2600074271509334</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1437421119161611</v>
+        <v>-0.1839286680308061</v>
       </c>
     </row>
     <row r="28">
@@ -1477,7 +1471,7 @@
         <v>-11.8366679739209</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-9.792465141607096</v>
+        <v>-9.792465141607099</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-7.446787705517457</v>
@@ -1497,31 +1491,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.42602128525653</v>
+        <v>-11.88196592314691</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-15.41346882300792</v>
+        <v>-15.88719572564774</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.30532683876347</v>
+        <v>-13.81565450467287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.56799020739705</v>
+        <v>-13.75231360603399</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-17.31866049685289</v>
+        <v>-17.79549360252843</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.62819217218733</v>
+        <v>-15.00937773818141</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-11.26606373606251</v>
+        <v>-11.30000970251303</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-14.88024302308059</v>
+        <v>-15.25753254566726</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.83323498353447</v>
+        <v>-12.73665583593288</v>
       </c>
     </row>
     <row r="30">
@@ -1532,31 +1526,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.821148932172455</v>
+        <v>-2.580178925987364</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.076184911552566</v>
+        <v>-7.4485052177202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.710824035592434</v>
+        <v>-4.995280141337402</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.968684128784104</v>
+        <v>-2.370220166968394</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.174347687229568</v>
+        <v>-6.4676734572864</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.895244839236099</v>
+        <v>-5.295182424483793</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-3.49702496064289</v>
+        <v>-3.415548950347463</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-8.02166723714819</v>
+        <v>-7.869744042570059</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.132362364794742</v>
+        <v>-6.121140775098898</v>
       </c>
     </row>
     <row r="31">
@@ -1573,7 +1567,7 @@
         <v>-0.6946777253774508</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5480783396828579</v>
+        <v>-0.548078339682858</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2759268536185067</v>
@@ -1582,7 +1576,7 @@
         <v>-0.4220347925026235</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3491490175472368</v>
+        <v>-0.3491490175472369</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.332918938449815</v>
@@ -1602,31 +1596,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6128680831336484</v>
+        <v>-0.6079152478296764</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8113320329517334</v>
+        <v>-0.8185201231732773</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6941942421140179</v>
+        <v>-0.7008229920693042</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4419948695764259</v>
+        <v>-0.4368754121112061</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5580710907515759</v>
+        <v>-0.561190737775803</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.469907666493711</v>
+        <v>-0.4834795884833005</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4573038250744602</v>
+        <v>-0.4643085070462803</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6108991072574139</v>
+        <v>-0.623553217453744</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5236084731713088</v>
+        <v>-0.5175204503068339</v>
       </c>
     </row>
     <row r="33">
@@ -1637,31 +1631,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.116620092925381</v>
+        <v>-0.1792128155719202</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4757607579428068</v>
+        <v>-0.5181901173148205</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3517262177896724</v>
+        <v>-0.3684598062926147</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07139652853597996</v>
+        <v>-0.08900162373671695</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2461672513826574</v>
+        <v>-0.2638951012105429</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2066227272397131</v>
+        <v>-0.2197469393963621</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1621347581122075</v>
+        <v>-0.1698826779393872</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3894129348217542</v>
+        <v>-0.3889931467332474</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3044437548512547</v>
+        <v>-0.3052149225220348</v>
       </c>
     </row>
     <row r="34">
@@ -1711,31 +1705,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.65181134316393</v>
+        <v>-12.21074348910586</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.99424991508808</v>
+        <v>-20.61528866601023</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.78713796738199</v>
+        <v>-16.53232077366643</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-21.39760903099328</v>
+        <v>-21.38696358394085</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-28.89755499675038</v>
+        <v>-29.07175110689361</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.67394340943434</v>
+        <v>-22.44469331915677</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-16.04853479926711</v>
+        <v>-15.22577480299946</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-23.2800628061343</v>
+        <v>-23.96154326417291</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.46156874981157</v>
+        <v>-19.15843703573738</v>
       </c>
     </row>
     <row r="36">
@@ -1746,31 +1740,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.413712478164378</v>
+        <v>1.899116032709023</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-8.96934481480873</v>
+        <v>-9.324508393456981</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-6.201001909699746</v>
+        <v>-6.260159147194232</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-7.089377530145073</v>
+        <v>-7.566191420677555</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-15.11100787229925</v>
+        <v>-15.19293473302264</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-10.12887730820196</v>
+        <v>-10.38630102776214</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-5.973372080469205</v>
+        <v>-5.676343259520007</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-14.53909084370268</v>
+        <v>-14.75783746006544</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-10.57886706881504</v>
+        <v>-10.50094009278479</v>
       </c>
     </row>
     <row r="37">
@@ -1816,31 +1810,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4723743241203402</v>
+        <v>-0.4821847044812037</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7849355517917451</v>
+        <v>-0.7960163046042048</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6582769506496291</v>
+        <v>-0.6504188112537684</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4215110871661412</v>
+        <v>-0.4312566714450389</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5694547443032401</v>
+        <v>-0.5771219222673072</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4411157356037514</v>
+        <v>-0.444640583833777</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4174427984961457</v>
+        <v>-0.4030739569163564</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6180674101301953</v>
+        <v>-0.6271771645588115</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5015893601359994</v>
+        <v>-0.4982478351220838</v>
       </c>
     </row>
     <row r="39">
@@ -1851,31 +1845,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.0914049525783434</v>
+        <v>0.1075515601920603</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.4471883618834344</v>
+        <v>-0.4762154903428492</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3363305865503275</v>
+        <v>-0.3199654834530121</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1646502910195072</v>
+        <v>-0.1753853997616306</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.3488133726449475</v>
+        <v>-0.3470757224522262</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2370107656797431</v>
+        <v>-0.2357468324893133</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.1747794418203013</v>
+        <v>-0.1662888473514094</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.4315571886112706</v>
+        <v>-0.440353832170239</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3298461510660042</v>
+        <v>-0.3265251435924765</v>
       </c>
     </row>
     <row r="40">
@@ -1925,31 +1919,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-19.59018676085072</v>
+        <v>-19.60437399458585</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-26.84801882007116</v>
+        <v>-26.29597355307045</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-21.10530628547114</v>
+        <v>-20.94486149043452</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-24.07399324719758</v>
+        <v>-24.58718517433642</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-40.90011665659004</v>
+        <v>-41.07444256787627</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-23.04121599164325</v>
+        <v>-23.37682264579441</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-21.20948107049393</v>
+        <v>-20.88228332732496</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-33.28328920215139</v>
+        <v>-33.31076291480283</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-20.14624615283474</v>
+        <v>-21.41697558122513</v>
       </c>
     </row>
     <row r="42">
@@ -1960,31 +1954,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-3.231430415074479</v>
+        <v>-2.558582188844976</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-11.60923592993462</v>
+        <v>-11.76789086562601</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-6.417740337972487</v>
+        <v>-6.619969643634946</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-8.648233739320862</v>
+        <v>-9.058142311844847</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-26.16491565276299</v>
+        <v>-26.21675276922836</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-10.18680456702061</v>
+        <v>-11.05705001849811</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-9.156122514191804</v>
+        <v>-8.919804370055253</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-22.15796329168447</v>
+        <v>-22.3887645689789</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-10.59304695532935</v>
+        <v>-10.84916777246549</v>
       </c>
     </row>
     <row r="43">
@@ -2010,7 +2004,7 @@
         <v>-0.5674763459054359</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.27987968537343</v>
+        <v>-0.2798796853734299</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.2965556397887206</v>
@@ -2030,31 +2024,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5154366920580793</v>
+        <v>-0.5025741442360705</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6990533522674262</v>
+        <v>-0.6769604531113809</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5299690641684681</v>
+        <v>-0.5309492073027139</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3795312374778555</v>
+        <v>-0.3926554036718283</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6500402859534179</v>
+        <v>-0.6525519496643893</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3602744941717109</v>
+        <v>-0.3606136412849372</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4006369678092103</v>
+        <v>-0.3953204667329499</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6349535197205097</v>
+        <v>-0.6399947607620846</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3849544460112337</v>
+        <v>-0.3967454641504773</v>
       </c>
     </row>
     <row r="45">
@@ -2065,31 +2059,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1059952898425267</v>
+        <v>-0.0909977423560392</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.4035556667132045</v>
+        <v>-0.3910086428261799</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2094055698468478</v>
+        <v>-0.221128654505293</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.1599877281442312</v>
+        <v>-0.1662485668311668</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.4662298452352515</v>
+        <v>-0.4689913164593563</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1828060052393341</v>
+        <v>-0.1915344578408689</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1947910437975708</v>
+        <v>-0.1895858799561363</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4783983746625972</v>
+        <v>-0.4776087777205049</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2295967431824377</v>
+        <v>-0.2278459557163509</v>
       </c>
     </row>
     <row r="46">
@@ -2110,7 +2104,7 @@
         <v>-3.627151571888239</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.967565496292828</v>
+        <v>-1.967565496292827</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-5.258062014386372</v>
@@ -2119,7 +2113,7 @@
         <v>-8.284843596348841</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.271694038125808</v>
+        <v>-3.271694038125805</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-3.680288974368419</v>
@@ -2128,7 +2122,7 @@
         <v>-5.97394762147638</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.577869689025521</v>
+        <v>-2.577869689025518</v>
       </c>
     </row>
     <row r="47">
@@ -2139,31 +2133,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.257208865779412</v>
+        <v>-3.11118287369042</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.837619114359846</v>
+        <v>-4.561247025162464</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.149578980011141</v>
+        <v>-3.030699940191679</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.939026349910912</v>
+        <v>-7.068816185430612</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-10.11791776606835</v>
+        <v>-9.964437772857359</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.812704918188286</v>
+        <v>-4.768880865226369</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.816396770169786</v>
+        <v>-4.871182289042517</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.015061509435426</v>
+        <v>-7.035913764212786</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.500632195262686</v>
+        <v>-3.563237492531078</v>
       </c>
     </row>
     <row r="48">
@@ -2174,31 +2168,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.9195760393247397</v>
+        <v>-0.6813178989123415</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.509636721219359</v>
+        <v>-2.422966666670526</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.8593725544968945</v>
+        <v>-0.7630290362092965</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.593869270710079</v>
+        <v>-3.54016158120782</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-6.790300198327776</v>
+        <v>-6.594634751976887</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.697852993149652</v>
+        <v>-1.664841962349651</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.538318608066815</v>
+        <v>-2.664588778800147</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-4.99019057337308</v>
+        <v>-5.007795868183969</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.523881545844034</v>
+        <v>-1.515761094100325</v>
       </c>
     </row>
     <row r="49">
@@ -2215,7 +2209,7 @@
         <v>-0.5023941502802807</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2725260789463617</v>
+        <v>-0.2725260789463615</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.2978447559673545</v>
@@ -2224,7 +2218,7 @@
         <v>-0.4692978539299702</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.18532624942788</v>
+        <v>-0.1853262494278798</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.294019017712254</v>
@@ -2233,7 +2227,7 @@
         <v>-0.4772598629520308</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2059465218726606</v>
+        <v>-0.2059465218726604</v>
       </c>
     </row>
     <row r="50">
@@ -2244,31 +2238,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4163686588206612</v>
+        <v>-0.4042079710021432</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6081708746477477</v>
+        <v>-0.5946575639131527</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3979059249261768</v>
+        <v>-0.3837712026530471</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3720599795663443</v>
+        <v>-0.3792843226761723</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5389824992484515</v>
+        <v>-0.5387347911493281</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2602601015795548</v>
+        <v>-0.2558861354339333</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3658170987613996</v>
+        <v>-0.3685802181512839</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5361880736244725</v>
+        <v>-0.5368101815833002</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2691894590427011</v>
+        <v>-0.2700024656814143</v>
       </c>
     </row>
     <row r="51">
@@ -2279,31 +2273,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1450179567267648</v>
+        <v>-0.1103363548536325</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3814267062615702</v>
+        <v>-0.3697536318927649</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1275555291573346</v>
+        <v>-0.1109112697049904</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2154729157232634</v>
+        <v>-0.2130068018804729</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.4000778206065003</v>
+        <v>-0.3970677263501056</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1012825186821315</v>
+        <v>-0.1002784138835612</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.2137270759239365</v>
+        <v>-0.2204556631542972</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.417851981218934</v>
+        <v>-0.4178630146059316</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1324803708075198</v>
+        <v>-0.1231179207017386</v>
       </c>
     </row>
     <row r="52">
